--- a/TestSmellSelection/Tools-Metrics Mapping.xlsx
+++ b/TestSmellSelection/Tools-Metrics Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valeriapontillo/Desktop/ML-Test-Smell-Detection-Online-Appendix/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valeriapontillo/Desktop/ML-Test-Smell-Detection-Online-Appendix/TestSmellSelection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD8CF83-A450-7647-B991-68B6C1225983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D79C6D-720A-CA45-9760-07BA5B65B061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16040" xr2:uid="{3BE1FC2A-C7FB-FD4B-A4B3-80D9545251F6}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16020" xr2:uid="{3BE1FC2A-C7FB-FD4B-A4B3-80D9545251F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -200,7 +200,7 @@
   </si>
   <si>
     <t xml:space="preserve">Average Textual similarity between all the pairs methods called by the test method (TMC)
-Probability of a Class to be affected by Eager Test baisng on its textual content (PET)
+Textual Scattering (TS)
 </t>
   </si>
 </sst>
